--- a/ambassador/submissions_duplicates_removed.xlsx
+++ b/ambassador/submissions_duplicates_removed.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,272 +454,1575 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Your Name</t>
+          <t>Nominator Name</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Your Email</t>
+          <t>Nominator Email</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Contribution Checkboxes</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Ambassador Pitch</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Additional Info</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>Submission Summary</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="A2" t="n">
+        <v>297</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ghassen Fatnassi</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ghassen.fatnassi@supcom.tn</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ghassen-fatnassi</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Ahmed Benameur</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>ahmedbenameur2001@gmail.com</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; An active leader in the PyTorch community with **at least one year** of experience in:; Organizing events (virtual/in-person).; Speaking at AI/ML conferences.; Mentoring others in PyTorch.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Contributions:
+I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; An active leader in the PyTorch community with **at least one year** of experience in:; Organizing events (virtual/in-person).; Speaking at AI/ML conferences.; Mentoring others in PyTorch.
+Ambassador Nomination Statement:
+```markdown
+GitHub Handle:
+ghassen-fatnassi
+Additional Info:
+```markdown</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="A3" t="n">
+        <v>295</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ghassen fatnassi</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ghassen.fatnassi@supcom.tn</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ghassen-fatnassi</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Khalifa Bouneb</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>khalifa.bouneb@supcom.tn</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; Organizing events (virtual/in-person).; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Contributions:
+I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; Organizing events (virtual/in-person).; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).
+Ambassador Nomination Statement:
+```markdown
+GitHub Handle:
+ghassen-fatnassi
+Additional Info:
+```markdown</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="A4" t="n">
+        <v>294</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ghassen fatnassi</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ghassen.fatnassi@supcom.tn</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ghassen-fatnassi</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Khalifa Bouneb</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>khalifa.bouneb@supcom.tn</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; Organizing events (virtual/in-person).; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Contributions:
+I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; Organizing events (virtual/in-person).; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).
+Ambassador Nomination Statement:
+```markdown
+GitHub Handle:
+ghassen-fatnassi
+Additional Info:
+```markdown</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="A5" t="n">
+        <v>291</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ghassen fatnassi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ghassen.fatnassi@supcom.tn</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Ghassen-fatnassi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sup'com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Taher boudriga</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Contributions:
+I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).
+Ambassador Nomination Statement:
+```markdown
+GitHub Handle:
+Ghassen-fatnassi
+Additional Info:
+```markdown</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="A6" t="n">
+        <v>290</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ghassen Fatnassi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ghassen.fatnassi@supcom.tn</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://github.com/ghassen-fatnassi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Higher School of Communication of Tunis</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>El Ghazela, Ariana, Tunisia</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Mohamed Aziz Esseghaier</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>mohamedaziz.esseghaier@supcom.tn</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).; A researcher or educator using PyTorch in academic work or training.; An active leader in the PyTorch community with **at least one year** of experience in:; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Contributions:
+I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).; A researcher or educator using PyTorch in academic work or training.; An active leader in the PyTorch community with **at least one year** of experience in:; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).
+Ambassador Nomination Statement:
+```markdown
+GitHub Handle:
+https://github.com/ghassen-fatnassi
+Additional Info:
+```markdown</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="A7" t="n">
+        <v>282</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dhia Naouali</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>dhia12naouali@gmail.com</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Dhia-naouali</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Monastir, Tunisia</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Saifeddine Rejeb</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; Organizing events (virtual/in-person).; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Contributions:
+I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; Organizing events (virtual/in-person).; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).
+Ambassador Nomination Statement:
+```markdown
+GitHub Handle:
+Dhia-naouali
+Additional Info:
+```markdown</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="A8" t="n">
+        <v>280</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ghassen Fatnassi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ghassen.fatnassi@supcom.tn</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ghassen-fatnassi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Chater Marzougui</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>chater.marzougui@supcom.tn</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; Speaking at AI/ML conferences.; Mentoring others in PyTorch.</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Contributions:
+I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; Speaking at AI/ML conferences.; Mentoring others in PyTorch.
+Ambassador Nomination Statement:
+```markdown
+GitHub Handle:
+ghassen-fatnassi
+Additional Info:
+```markdown</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="A9" t="n">
+        <v>279</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ghassen Fatnassi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ghassen.fatnassi@supcom.tn</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://github.com/ghassen-fatnassi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Higher School of Communication SUP'COM</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ghazela,Ariana,Tunis,Tunisia</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ghassen.fatnassi@supcom.tn</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; An active leader in the PyTorch community with **at least one year** of experience in:; Organizing events (virtual/in-person).; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Contributions:
+I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; An active leader in the PyTorch community with **at least one year** of experience in:; Organizing events (virtual/in-person).; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).
+Ambassador Nomination Statement:
+```markdown
+GitHub Handle:
+https://github.com/ghassen-fatnassi
+Additional Info:
+```markdown</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="A10" t="n">
+        <v>278</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ghassen Fatnassi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ghassen.fatnassi@supcom.tn</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://github.com/ghassen-fatnassi</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>tunis, Tunisia</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Dhia naouali</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>dhia12naouali@gmail.com</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; Organizing events (virtual/in-person).; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Contributions:
+I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; Organizing events (virtual/in-person).; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).
+Ambassador Nomination Statement:
+```markdown
+GitHub Handle:
+https://github.com/ghassen-fatnassi
+Additional Info:
+```markdown</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="A11" t="n">
+        <v>276</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dhia Naouali</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>dhia12naouali@gmail.com</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Dhia-naouali</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tunisia,monastir</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Ghassen Fatnassi</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ghassen.fatnassi@supcom.tn</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; Organizing events (virtual/in-person).; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Contributions:
+I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; Organizing events (virtual/in-person).; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).
+Ambassador Nomination Statement:
+```markdown
+GitHub Handle:
+Dhia-naouali
+Additional Info:
+```markdown</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="A12" t="n">
+        <v>270</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Kevin Wang</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>kevin.wang777777@gmail.com</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>aiejvn</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Markham, Canada</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Christian Fiorino</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; Organizing events (virtual/in-person).; Speaking at AI/ML conferences.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Contributions:
+I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; Organizing events (virtual/in-person).; Speaking at AI/ML conferences.; Creating technical content (e.g., blogs, videos, tutorials).
+Ambassador Nomination Statement:
+```markdown
+GitHub Handle:
+aiejvn
+Additional Info:
+```markdown</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="A13" t="n">
+        <v>267</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Kevin Wang</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>kevin.wang777777@gmail.com</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>aiejvn</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>AMD, Queen's University</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Markham, Canada</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; Organizing events (virtual/in-person).; Speaking at AI/ML conferences.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Contributions:
+I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; Organizing events (virtual/in-person).; Speaking at AI/ML conferences.; Creating technical content (e.g., blogs, videos, tutorials).
+Ambassador Nomination Statement:
+```markdown
+GitHub Handle:
+aiejvn
+Additional Info:
+```markdown</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="A14" t="n">
+        <v>255</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Dhia naouali</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>dhia12naouali@gmail.com</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Dhia-naouali</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Higher Institute of mathematics and computer sciences of monastir</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Monastir, Tunisia</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).; A researcher or educator using PyTorch in academic work or training.; Organizing events (virtual/in-person).; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Contributions:
+I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).; A researcher or educator using PyTorch in academic work or training.; Organizing events (virtual/in-person).; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).
+Ambassador Nomination Statement:
+```markdown
+GitHub Handle:
+Dhia-naouali
+Additional Info:
+```markdown</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="A15" t="n">
+        <v>250</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>I am **nominating myself** for the PyTorch Ambassador Program.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; An active leader in the PyTorch community with **at least one year** of experience in:; Organizing events (virtual/in-person).; Speaking at AI/ML conferences.; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Contributions:
+I am **nominating myself** for the PyTorch Ambassador Program.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; An active leader in the PyTorch community with **at least one year** of experience in:; Organizing events (virtual/in-person).; Speaking at AI/ML conferences.; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).
+Ambassador Nomination Statement:
+```markdown
+GitHub Handle:
+_No response_
+Additional Info:
+```markdown</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="A16" t="n">
+        <v>237</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Wachiou BOURAIMA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ibrahim@pytogo.org</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>WassCodeur</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Python Togo community</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Lome, Togo</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; Organizing events (virtual/in-person).; Speaking at AI/ML conferences.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Contributions:
+I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; Organizing events (virtual/in-person).; Speaking at AI/ML conferences.; Creating technical content (e.g., blogs, videos, tutorials).
+Ambassador Nomination Statement:
+```markdown
+GitHub Handle:
+WassCodeur
+Additional Info:
+```markdown</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="A17" t="n">
+        <v>236</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Wachiou BOURAIMA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ibrahim@pytogo.org</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>WassCodeur</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Python Togo community</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Lome, Togo</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; Organizing events (virtual/in-person).; Speaking at AI/ML conferences.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Contributions:
+I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; Organizing events (virtual/in-person).; Speaking at AI/ML conferences.; Creating technical content (e.g., blogs, videos, tutorials).
+Ambassador Nomination Statement:
+```markdown
+GitHub Handle:
+WassCodeur
+Additional Info:
+```markdown</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="A18" t="n">
+        <v>202</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Kunal Kumar Mishra</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>kunalmishravats@gmail.com</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>pt-kunal-mishra</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Motherson Technology Service Limited</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>New Delhi,Delhi,India</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).; A researcher or educator using PyTorch in academic work or training.; Speaking at AI/ML conferences.; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Contributions:
+I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).; A researcher or educator using PyTorch in academic work or training.; Speaking at AI/ML conferences.; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).
+Ambassador Nomination Statement:
+```markdown
+GitHub Handle:
+pt-kunal-mishra
+Additional Info:
+```markdown</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="A19" t="n">
+        <v>201</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Kunal Kumar Mishra</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>kunalmishravats@gmail.com</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>pt-kunal-mishra</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Motherson Technology Service Limited</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>New Delhi,Delhi,India</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).; A researcher or educator using PyTorch in academic work or training.; Speaking at AI/ML conferences.; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Contributions:
+I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).; A researcher or educator using PyTorch in academic work or training.; Speaking at AI/ML conferences.; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).
+Ambassador Nomination Statement:
+```markdown
+GitHub Handle:
+pt-kunal-mishra
+Additional Info:
+```markdown</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="A20" t="n">
+        <v>186</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Koki Mitsunami</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>koki.mitsunami@arm.com</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>STE</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Cambridge, UK</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Roberto Lopez Mendez</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>roberto.lopezmendez@arm.com</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/foundation-programs/blob/main/pytorch-ambassador-program.md).; A speaker at PyTorch events or workshops.; Speaking at AI/ML conferences.; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Contributions:
+I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/foundation-programs/blob/main/pytorch-ambassador-program.md).; A speaker at PyTorch events or workshops.; Speaking at AI/ML conferences.; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).
+Ambassador Nomination Statement:
+```markdown
+GitHub Handle:
+_No response_
+Additional Info:
+```markdown</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="A21" t="n">
+        <v>133</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Efe Kaan Güler</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>efekaanguler05@gmail.com</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>efekaanguler</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Google Developer Groups on Campus - Middle East Technical University</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Ankara, Turkiye</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/foundation-programs/blob/main/pytorch-ambassador-program.md).; A speaker at PyTorch events or workshops.; A PyTorch user group organizer or meetup host.; A researcher or educator using PyTorch in academic work or training.; An active leader in the PyTorch community with **at least one year** of experience in:; Organizing events (virtual/in-person).; Speaking at AI/ML conferences.; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Contributions:
+I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/foundation-programs/blob/main/pytorch-ambassador-program.md).; A speaker at PyTorch events or workshops.; A PyTorch user group organizer or meetup host.; A researcher or educator using PyTorch in academic work or training.; An active leader in the PyTorch community with **at least one year** of experience in:; Organizing events (virtual/in-person).; Speaking at AI/ML conferences.; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).
+Ambassador Nomination Statement:
+```markdown
+GitHub Handle:
+efekaanguler
+Additional Info:
+```markdown</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="A22" t="n">
+        <v>127</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Kuyeso Rogers</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>kuyesu22@gmail.com</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>kuyesu</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Mbarara, Uganda</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>I am **nominating myself** for the PyTorch Ambassador Program.; I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/foundation-programs/blob/main/pytorch-ambassador-program.md).; A researcher or educator using PyTorch in academic work or training.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Contributions:
+I am **nominating myself** for the PyTorch Ambassador Program.; I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/foundation-programs/blob/main/pytorch-ambassador-program.md).; A researcher or educator using PyTorch in academic work or training.; Creating technical content (e.g., blogs, videos, tutorials).
+Ambassador Nomination Statement:
+```markdown
+GitHub Handle:
+kuyesu
+Additional Info:
+```markdown</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+      <c r="A23" t="n">
+        <v>93</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Keita Watanabe</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>keitaw</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Tokyo, Japan</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/foundation-programs/blob/main/pytorch-ambassador-program.md).; An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).; Creating technical content (e.g., blogs, videos, tutorials).</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Contributions:
+I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/foundation-programs/blob/main/pytorch-ambassador-program.md).; An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).; Creating technical content (e.g., blogs, videos, tutorials).
+Ambassador Nomination Statement:
+```markdown
+GitHub Handle:
+keitaw
+Additional Info:
+```markdown</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+      <c r="A24" t="n">
+        <v>62</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Ahmet Bilgehan SERÇE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ab.serces@gmail.com</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>abhans</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NLSS Mühendislik ve AR&amp;GE</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Istanbul/TURKEY</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>_No response_</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>ab.serces@gmail.com</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/foundation-programs/blob/main/pytorch-ambassador-program.md).; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>```markdown</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Contributions:
+I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/foundation-programs/blob/main/pytorch-ambassador-program.md).; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).
+Ambassador Nomination Statement:
+```markdown
+GitHub Handle:
+abhans
+Additional Info:
+```markdown</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ambassador/submissions_duplicates_removed.xlsx
+++ b/ambassador/submissions_duplicates_removed.xlsx
@@ -469,10 +469,26 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>🏆 Ambassador Contribution Plan:
-🔗 Additional Information:
-✅ Contribution Highlights:
-I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; An active leader in the PyTorch community with **at least one year** of experience in:; Organizing events (virtual/in-person).; Speaking at AI/ML conferences.; Mentoring others in PyTorch.</t>
+          <t>Contributions:
+- [ ] I am **nominating myself** for the PyTorch Ambassador Program.
+- [x] I am **nominating someone else** to become a PyTorch Ambassador.
+- [x] The nominee is **18 years of age or older**.
+- [x] The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.
+- [x] The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.
+- [x] The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).
+- [ ] An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).
+- [ ] A speaker at PyTorch events or workshops.
+- [ ] A PyTorch user group organizer or meetup host.
+- [ ] A researcher or educator using PyTorch in academic work or training.
+- [x] An active leader in the PyTorch community with **at least one year** of experience in:
+- [x] Organizing events (virtual/in-person).
+- [x] Speaking at AI/ML conferences.
+- [x] Mentoring others in PyTorch.
+- [ ] Creating technical content (e.g., blogs, videos, tutorials).
+How Would the Nominee Contribute as an Ambassador?
+```markdown
+Additional Notes:
+```markdown</t>
         </is>
       </c>
     </row>
@@ -497,10 +513,26 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>🏆 Ambassador Contribution Plan:
-🔗 Additional Information:
-✅ Contribution Highlights:
-I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; Organizing events (virtual/in-person).; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+          <t>Contributions:
+- [ ] I am **nominating myself** for the PyTorch Ambassador Program.
+- [x] I am **nominating someone else** to become a PyTorch Ambassador.
+- [x] The nominee is **18 years of age or older**.
+- [x] The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.
+- [x] The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.
+- [x] The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).
+- [ ] An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).
+- [ ] A speaker at PyTorch events or workshops.
+- [ ] A PyTorch user group organizer or meetup host.
+- [x] A researcher or educator using PyTorch in academic work or training.
+- [ ] An active leader in the PyTorch community with **at least one year** of experience in:
+- [x] Organizing events (virtual/in-person).
+- [ ] Speaking at AI/ML conferences.
+- [x] Mentoring others in PyTorch.
+- [x] Creating technical content (e.g., blogs, videos, tutorials).
+How Would the Nominee Contribute as an Ambassador?
+```markdown
+Additional Notes:
+```markdown</t>
         </is>
       </c>
     </row>
@@ -525,10 +557,26 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>🏆 Ambassador Contribution Plan:
-🔗 Additional Information:
-✅ Contribution Highlights:
-I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; Organizing events (virtual/in-person).; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+          <t>Contributions:
+- [ ] I am **nominating myself** for the PyTorch Ambassador Program.
+- [x] I am **nominating someone else** to become a PyTorch Ambassador.
+- [x] The nominee is **18 years of age or older**.
+- [x] The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.
+- [x] The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.
+- [x] The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).
+- [ ] An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).
+- [ ] A speaker at PyTorch events or workshops.
+- [ ] A PyTorch user group organizer or meetup host.
+- [x] A researcher or educator using PyTorch in academic work or training.
+- [ ] An active leader in the PyTorch community with **at least one year** of experience in:
+- [x] Organizing events (virtual/in-person).
+- [ ] Speaking at AI/ML conferences.
+- [x] Mentoring others in PyTorch.
+- [x] Creating technical content (e.g., blogs, videos, tutorials).
+How Would the Nominee Contribute as an Ambassador?
+```markdown
+Additional Notes:
+```markdown</t>
         </is>
       </c>
     </row>
@@ -553,10 +601,26 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>🏆 Ambassador Contribution Plan:
-🔗 Additional Information:
-✅ Contribution Highlights:
-I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).</t>
+          <t>Contributions:
+- [ ] I am **nominating myself** for the PyTorch Ambassador Program.
+- [x] I am **nominating someone else** to become a PyTorch Ambassador.
+- [x] The nominee is **18 years of age or older**.
+- [x] The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.
+- [x] The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.
+- [x] The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).
+- [x] An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).
+- [ ] A speaker at PyTorch events or workshops.
+- [ ] A PyTorch user group organizer or meetup host.
+- [ ] A researcher or educator using PyTorch in academic work or training.
+- [ ] An active leader in the PyTorch community with **at least one year** of experience in:
+- [ ] Organizing events (virtual/in-person).
+- [ ] Speaking at AI/ML conferences.
+- [ ] Mentoring others in PyTorch.
+- [ ] Creating technical content (e.g., blogs, videos, tutorials).
+How Would the Nominee Contribute as an Ambassador?
+```markdown
+Additional Notes:
+```markdown</t>
         </is>
       </c>
     </row>
@@ -581,10 +645,26 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>🏆 Ambassador Contribution Plan:
-🔗 Additional Information:
-✅ Contribution Highlights:
-I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).; A researcher or educator using PyTorch in academic work or training.; An active leader in the PyTorch community with **at least one year** of experience in:; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+          <t>Contributions:
+- [ ] I am **nominating myself** for the PyTorch Ambassador Program.
+- [x] I am **nominating someone else** to become a PyTorch Ambassador.
+- [x] The nominee is **18 years of age or older**.
+- [x] The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.
+- [x] The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.
+- [x] The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).
+- [x] An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).
+- [ ] A speaker at PyTorch events or workshops.
+- [ ] A PyTorch user group organizer or meetup host.
+- [x] A researcher or educator using PyTorch in academic work or training.
+- [x] An active leader in the PyTorch community with **at least one year** of experience in:
+- [ ] Organizing events (virtual/in-person).
+- [ ] Speaking at AI/ML conferences.
+- [x] Mentoring others in PyTorch.
+- [x] Creating technical content (e.g., blogs, videos, tutorials).
+How Would the Nominee Contribute as an Ambassador?
+```markdown
+Additional Notes:
+```markdown</t>
         </is>
       </c>
     </row>
@@ -609,10 +689,26 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>🏆 Ambassador Contribution Plan:
-🔗 Additional Information:
-✅ Contribution Highlights:
-I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; Organizing events (virtual/in-person).; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+          <t>Contributions:
+- [ ] I am **nominating myself** for the PyTorch Ambassador Program.
+- [x] I am **nominating someone else** to become a PyTorch Ambassador.
+- [x] The nominee is **18 years of age or older**.
+- [x] The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.
+- [x] The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.
+- [x] The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).
+- [ ] An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).
+- [ ] A speaker at PyTorch events or workshops.
+- [ ] A PyTorch user group organizer or meetup host.
+- [x] A researcher or educator using PyTorch in academic work or training.
+- [ ] An active leader in the PyTorch community with **at least one year** of experience in:
+- [x] Organizing events (virtual/in-person).
+- [ ] Speaking at AI/ML conferences.
+- [x] Mentoring others in PyTorch.
+- [x] Creating technical content (e.g., blogs, videos, tutorials).
+How Would the Nominee Contribute as an Ambassador?
+```markdown
+Additional Notes:
+```markdown</t>
         </is>
       </c>
     </row>
@@ -637,10 +733,26 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>🏆 Ambassador Contribution Plan:
-🔗 Additional Information:
-✅ Contribution Highlights:
-I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; Speaking at AI/ML conferences.; Mentoring others in PyTorch.</t>
+          <t>Contributions:
+- [ ] I am **nominating myself** for the PyTorch Ambassador Program.
+- [x] I am **nominating someone else** to become a PyTorch Ambassador.
+- [x] The nominee is **18 years of age or older**.
+- [x] The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.
+- [x] The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.
+- [x] The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).
+- [ ] An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).
+- [ ] A speaker at PyTorch events or workshops.
+- [ ] A PyTorch user group organizer or meetup host.
+- [x] A researcher or educator using PyTorch in academic work or training.
+- [ ] An active leader in the PyTorch community with **at least one year** of experience in:
+- [ ] Organizing events (virtual/in-person).
+- [x] Speaking at AI/ML conferences.
+- [x] Mentoring others in PyTorch.
+- [ ] Creating technical content (e.g., blogs, videos, tutorials).
+How Would the Nominee Contribute as an Ambassador?
+```markdown
+Additional Notes:
+```markdown</t>
         </is>
       </c>
     </row>
@@ -665,10 +777,26 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>🏆 Ambassador Contribution Plan:
-🔗 Additional Information:
-✅ Contribution Highlights:
-I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; An active leader in the PyTorch community with **at least one year** of experience in:; Organizing events (virtual/in-person).; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+          <t>Contributions:
+- [x] I am **nominating myself** for the PyTorch Ambassador Program.
+- [ ] I am **nominating someone else** to become a PyTorch Ambassador.
+- [x] The nominee is **18 years of age or older**.
+- [x] The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.
+- [x] The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.
+- [x] The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).
+- [ ] An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).
+- [ ] A speaker at PyTorch events or workshops.
+- [ ] A PyTorch user group organizer or meetup host.
+- [x] A researcher or educator using PyTorch in academic work or training.
+- [x] An active leader in the PyTorch community with **at least one year** of experience in:
+- [x] Organizing events (virtual/in-person).
+- [ ] Speaking at AI/ML conferences.
+- [x] Mentoring others in PyTorch.
+- [x] Creating technical content (e.g., blogs, videos, tutorials).
+How Would the Nominee Contribute as an Ambassador?
+```markdown
+Additional Notes:
+```markdown</t>
         </is>
       </c>
     </row>
@@ -693,10 +821,26 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>🏆 Ambassador Contribution Plan:
-🔗 Additional Information:
-✅ Contribution Highlights:
-I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; Organizing events (virtual/in-person).; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+          <t>Contributions:
+- [ ] I am **nominating myself** for the PyTorch Ambassador Program.
+- [x] I am **nominating someone else** to become a PyTorch Ambassador.
+- [x] The nominee is **18 years of age or older**.
+- [x] The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.
+- [x] The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.
+- [x] The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).
+- [ ] An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).
+- [ ] A speaker at PyTorch events or workshops.
+- [ ] A PyTorch user group organizer or meetup host.
+- [x] A researcher or educator using PyTorch in academic work or training.
+- [ ] An active leader in the PyTorch community with **at least one year** of experience in:
+- [x] Organizing events (virtual/in-person).
+- [ ] Speaking at AI/ML conferences.
+- [x] Mentoring others in PyTorch.
+- [x] Creating technical content (e.g., blogs, videos, tutorials).
+How Would the Nominee Contribute as an Ambassador?
+```markdown
+Additional Notes:
+```markdown</t>
         </is>
       </c>
     </row>
@@ -721,10 +865,26 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>🏆 Ambassador Contribution Plan:
-🔗 Additional Information:
-✅ Contribution Highlights:
-I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; Organizing events (virtual/in-person).; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+          <t>Contributions:
+- [ ] I am **nominating myself** for the PyTorch Ambassador Program.
+- [x] I am **nominating someone else** to become a PyTorch Ambassador.
+- [x] The nominee is **18 years of age or older**.
+- [x] The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.
+- [x] The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.
+- [x] The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).
+- [ ] An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).
+- [ ] A speaker at PyTorch events or workshops.
+- [ ] A PyTorch user group organizer or meetup host.
+- [x] A researcher or educator using PyTorch in academic work or training.
+- [ ] An active leader in the PyTorch community with **at least one year** of experience in:
+- [x] Organizing events (virtual/in-person).
+- [ ] Speaking at AI/ML conferences.
+- [x] Mentoring others in PyTorch.
+- [x] Creating technical content (e.g., blogs, videos, tutorials).
+How Would the Nominee Contribute as an Ambassador?
+```markdown
+Additional Notes:
+```markdown</t>
         </is>
       </c>
     </row>
@@ -749,10 +909,26 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>🏆 Ambassador Contribution Plan:
-🔗 Additional Information:
-✅ Contribution Highlights:
-I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; Organizing events (virtual/in-person).; Speaking at AI/ML conferences.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+          <t>Contributions:
+- [ ] I am **nominating myself** for the PyTorch Ambassador Program.
+- [x] I am **nominating someone else** to become a PyTorch Ambassador.
+- [x] The nominee is **18 years of age or older**.
+- [x] The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.
+- [x] The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.
+- [x] The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).
+- [ ] An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).
+- [ ] A speaker at PyTorch events or workshops.
+- [ ] A PyTorch user group organizer or meetup host.
+- [x] A researcher or educator using PyTorch in academic work or training.
+- [ ] An active leader in the PyTorch community with **at least one year** of experience in:
+- [x] Organizing events (virtual/in-person).
+- [x] Speaking at AI/ML conferences.
+- [ ] Mentoring others in PyTorch.
+- [x] Creating technical content (e.g., blogs, videos, tutorials).
+How Would the Nominee Contribute as an Ambassador?
+```markdown
+Additional Notes:
+```markdown</t>
         </is>
       </c>
     </row>
@@ -777,10 +953,26 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>🏆 Ambassador Contribution Plan:
-🔗 Additional Information:
-✅ Contribution Highlights:
-I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; Organizing events (virtual/in-person).; Speaking at AI/ML conferences.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+          <t>Contributions:
+- [x] I am **nominating myself** for the PyTorch Ambassador Program.
+- [ ] I am **nominating someone else** to become a PyTorch Ambassador.
+- [x] The nominee is **18 years of age or older**.
+- [x] The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.
+- [x] The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.
+- [x] The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).
+- [ ] An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).
+- [ ] A speaker at PyTorch events or workshops.
+- [ ] A PyTorch user group organizer or meetup host.
+- [x] A researcher or educator using PyTorch in academic work or training.
+- [ ] An active leader in the PyTorch community with **at least one year** of experience in:
+- [x] Organizing events (virtual/in-person).
+- [x] Speaking at AI/ML conferences.
+- [ ] Mentoring others in PyTorch.
+- [x] Creating technical content (e.g., blogs, videos, tutorials).
+How Would the Nominee Contribute as an Ambassador?
+```markdown
+Additional Notes:
+```markdown</t>
         </is>
       </c>
     </row>
@@ -805,10 +997,26 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>🏆 Ambassador Contribution Plan:
-🔗 Additional Information:
-✅ Contribution Highlights:
-I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).; A researcher or educator using PyTorch in academic work or training.; Organizing events (virtual/in-person).; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+          <t>Contributions:
+- [x] I am **nominating myself** for the PyTorch Ambassador Program.
+- [ ] I am **nominating someone else** to become a PyTorch Ambassador.
+- [x] The nominee is **18 years of age or older**.
+- [x] The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.
+- [x] The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.
+- [x] The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).
+- [x] An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).
+- [ ] A speaker at PyTorch events or workshops.
+- [ ] A PyTorch user group organizer or meetup host.
+- [x] A researcher or educator using PyTorch in academic work or training.
+- [ ] An active leader in the PyTorch community with **at least one year** of experience in:
+- [x] Organizing events (virtual/in-person).
+- [ ] Speaking at AI/ML conferences.
+- [x] Mentoring others in PyTorch.
+- [x] Creating technical content (e.g., blogs, videos, tutorials).
+How Would the Nominee Contribute as an Ambassador?
+```markdown
+Additional Notes:
+```markdown</t>
         </is>
       </c>
     </row>
@@ -833,10 +1041,26 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>🏆 Ambassador Contribution Plan:
-🔗 Additional Information:
-✅ Contribution Highlights:
-I am **nominating myself** for the PyTorch Ambassador Program.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; A researcher or educator using PyTorch in academic work or training.; An active leader in the PyTorch community with **at least one year** of experience in:; Organizing events (virtual/in-person).; Speaking at AI/ML conferences.; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+          <t>Contributions:
+- [x] I am **nominating myself** for the PyTorch Ambassador Program.
+- [ ] I am **nominating someone else** to become a PyTorch Ambassador.
+- [ ] The nominee is **18 years of age or older**.
+- [x] The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.
+- [x] The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.
+- [x] The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).
+- [ ] An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).
+- [ ] A speaker at PyTorch events or workshops.
+- [ ] A PyTorch user group organizer or meetup host.
+- [x] A researcher or educator using PyTorch in academic work or training.
+- [x] An active leader in the PyTorch community with **at least one year** of experience in:
+- [x] Organizing events (virtual/in-person).
+- [x] Speaking at AI/ML conferences.
+- [x] Mentoring others in PyTorch.
+- [x] Creating technical content (e.g., blogs, videos, tutorials).
+How Would the Nominee Contribute as an Ambassador?
+```markdown
+Additional Notes:
+```markdown</t>
         </is>
       </c>
     </row>
@@ -861,10 +1085,26 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>🏆 Ambassador Contribution Plan:
-🔗 Additional Information:
-✅ Contribution Highlights:
-I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; Organizing events (virtual/in-person).; Speaking at AI/ML conferences.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+          <t>Contributions:
+- [x] I am **nominating myself** for the PyTorch Ambassador Program.
+- [ ] I am **nominating someone else** to become a PyTorch Ambassador.
+- [x] The nominee is **18 years of age or older**.
+- [x] The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.
+- [x] The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.
+- [x] The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).
+- [ ] An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).
+- [ ] A speaker at PyTorch events or workshops.
+- [ ] A PyTorch user group organizer or meetup host.
+- [ ] A researcher or educator using PyTorch in academic work or training.
+- [ ] An active leader in the PyTorch community with **at least one year** of experience in:
+- [x] Organizing events (virtual/in-person).
+- [x] Speaking at AI/ML conferences.
+- [ ] Mentoring others in PyTorch.
+- [x] Creating technical content (e.g., blogs, videos, tutorials).
+How Would the Nominee Contribute as an Ambassador?
+```markdown
+Additional Notes:
+```markdown</t>
         </is>
       </c>
     </row>
@@ -889,10 +1129,26 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>🏆 Ambassador Contribution Plan:
-🔗 Additional Information:
-✅ Contribution Highlights:
-I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; Organizing events (virtual/in-person).; Speaking at AI/ML conferences.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+          <t>Contributions:
+- [x] I am **nominating myself** for the PyTorch Ambassador Program.
+- [ ] I am **nominating someone else** to become a PyTorch Ambassador.
+- [x] The nominee is **18 years of age or older**.
+- [x] The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.
+- [x] The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.
+- [x] The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).
+- [ ] An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).
+- [ ] A speaker at PyTorch events or workshops.
+- [ ] A PyTorch user group organizer or meetup host.
+- [ ] A researcher or educator using PyTorch in academic work or training.
+- [ ] An active leader in the PyTorch community with **at least one year** of experience in:
+- [x] Organizing events (virtual/in-person).
+- [x] Speaking at AI/ML conferences.
+- [ ] Mentoring others in PyTorch.
+- [x] Creating technical content (e.g., blogs, videos, tutorials).
+How Would the Nominee Contribute as an Ambassador?
+```markdown
+Additional Notes:
+```markdown</t>
         </is>
       </c>
     </row>
@@ -917,10 +1173,26 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>🏆 Ambassador Contribution Plan:
-🔗 Additional Information:
-✅ Contribution Highlights:
-I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).; A researcher or educator using PyTorch in academic work or training.; Speaking at AI/ML conferences.; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+          <t>Contributions:
+- [x] I am **nominating myself** for the PyTorch Ambassador Program.
+- [ ] I am **nominating someone else** to become a PyTorch Ambassador.
+- [x] The nominee is **18 years of age or older**.
+- [x] The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.
+- [x] The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.
+- [x] The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).
+- [x] An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).
+- [ ] A speaker at PyTorch events or workshops.
+- [ ] A PyTorch user group organizer or meetup host.
+- [x] A researcher or educator using PyTorch in academic work or training.
+- [ ] An active leader in the PyTorch community with **at least one year** of experience in:
+- [ ] Organizing events (virtual/in-person).
+- [x] Speaking at AI/ML conferences.
+- [x] Mentoring others in PyTorch.
+- [x] Creating technical content (e.g., blogs, videos, tutorials).
+How Would the Nominee Contribute as an Ambassador?
+```markdown
+Additional Notes:
+```markdown</t>
         </is>
       </c>
     </row>
@@ -945,10 +1217,26 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>🏆 Ambassador Contribution Plan:
-🔗 Additional Information:
-✅ Contribution Highlights:
-I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).; An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).; A researcher or educator using PyTorch in academic work or training.; Speaking at AI/ML conferences.; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+          <t>Contributions:
+- [x] I am **nominating myself** for the PyTorch Ambassador Program.
+- [ ] I am **nominating someone else** to become a PyTorch Ambassador.
+- [x] The nominee is **18 years of age or older**.
+- [x] The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.
+- [x] The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.
+- [x] The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/ambassador-program/blob/main/README.md).
+- [x] An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).
+- [ ] A speaker at PyTorch events or workshops.
+- [ ] A PyTorch user group organizer or meetup host.
+- [x] A researcher or educator using PyTorch in academic work or training.
+- [ ] An active leader in the PyTorch community with **at least one year** of experience in:
+- [ ] Organizing events (virtual/in-person).
+- [x] Speaking at AI/ML conferences.
+- [x] Mentoring others in PyTorch.
+- [x] Creating technical content (e.g., blogs, videos, tutorials).
+How Would the Nominee Contribute as an Ambassador?
+```markdown
+Additional Notes:
+```markdown</t>
         </is>
       </c>
     </row>
@@ -973,10 +1261,26 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>🏆 Ambassador Contribution Plan:
-🔗 Additional Information:
-✅ Contribution Highlights:
-I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/foundation-programs/blob/main/pytorch-ambassador-program.md).; A speaker at PyTorch events or workshops.; Speaking at AI/ML conferences.; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+          <t>Contributions:
+- [ ] I am **nominating myself** for the PyTorch Ambassador Program.
+- [x] I am **nominating someone else** to become a PyTorch Ambassador.
+- [x] The nominee is **18 years of age or older**.
+- [x] The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.
+- [x] The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.
+- [x] The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/foundation-programs/blob/main/pytorch-ambassador-program.md).
+- [ ] An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).
+- [x] A speaker at PyTorch events or workshops.
+- [ ] A PyTorch user group organizer or meetup host.
+- [ ] A researcher or educator using PyTorch in academic work or training.
+- [ ] An active leader in the PyTorch community with **at least one year** of experience in:
+- [ ] Organizing events (virtual/in-person).
+- [x] Speaking at AI/ML conferences.
+- [x] Mentoring others in PyTorch.
+- [x] Creating technical content (e.g., blogs, videos, tutorials).
+How Would the Nominee Contribute as an Ambassador?
+```markdown
+Additional Notes:
+```markdown</t>
         </is>
       </c>
     </row>
@@ -1001,10 +1305,26 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>🏆 Ambassador Contribution Plan:
-🔗 Additional Information:
-✅ Contribution Highlights:
-I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/foundation-programs/blob/main/pytorch-ambassador-program.md).; A speaker at PyTorch events or workshops.; A PyTorch user group organizer or meetup host.; A researcher or educator using PyTorch in academic work or training.; An active leader in the PyTorch community with **at least one year** of experience in:; Organizing events (virtual/in-person).; Speaking at AI/ML conferences.; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+          <t>Contributions:
+- [x] I am **nominating myself** for the PyTorch Ambassador Program.
+- [ ] I am **nominating someone else** to become a PyTorch Ambassador.
+- [x] The nominee is **18 years of age or older**.
+- [x] The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.
+- [x] The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.
+- [x] The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/foundation-programs/blob/main/pytorch-ambassador-program.md).
+- [ ] An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).
+- [x] A speaker at PyTorch events or workshops.
+- [x] A PyTorch user group organizer or meetup host.
+- [x] A researcher or educator using PyTorch in academic work or training.
+- [x] An active leader in the PyTorch community with **at least one year** of experience in:
+- [x] Organizing events (virtual/in-person).
+- [x] Speaking at AI/ML conferences.
+- [x] Mentoring others in PyTorch.
+- [x] Creating technical content (e.g., blogs, videos, tutorials).
+How Would the Nominee Contribute as an Ambassador?
+```markdown
+Additional Notes:
+```markdown</t>
         </is>
       </c>
     </row>
@@ -1029,10 +1349,26 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>🏆 Ambassador Contribution Plan:
-🔗 Additional Information:
-✅ Contribution Highlights:
-I am **nominating myself** for the PyTorch Ambassador Program.; I am **nominating someone else** to become a PyTorch Ambassador.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/foundation-programs/blob/main/pytorch-ambassador-program.md).; A researcher or educator using PyTorch in academic work or training.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+          <t>Contributions:
+- [x] I am **nominating myself** for the PyTorch Ambassador Program.
+- [x] I am **nominating someone else** to become a PyTorch Ambassador.
+- [x] The nominee is **18 years of age or older**.
+- [x] The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.
+- [x] The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.
+- [x] The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/foundation-programs/blob/main/pytorch-ambassador-program.md).
+- [ ] An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).
+- [ ] A speaker at PyTorch events or workshops.
+- [ ] A PyTorch user group organizer or meetup host.
+- [x] A researcher or educator using PyTorch in academic work or training.
+- [ ] An active leader in the PyTorch community with **at least one year** of experience in:
+- [ ] Organizing events (virtual/in-person).
+- [ ] Speaking at AI/ML conferences.
+- [ ] Mentoring others in PyTorch.
+- [x] Creating technical content (e.g., blogs, videos, tutorials).
+How Would the Nominee Contribute as an Ambassador?
+```markdown
+Additional Notes:
+```markdown</t>
         </is>
       </c>
     </row>
@@ -1057,10 +1393,26 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>🏆 Ambassador Contribution Plan:
-🔗 Additional Information:
-✅ Contribution Highlights:
-I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/foundation-programs/blob/main/pytorch-ambassador-program.md).; An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).; Creating technical content (e.g., blogs, videos, tutorials).</t>
+          <t>Contributions:
+- [x] I am **nominating myself** for the PyTorch Ambassador Program.
+- [ ] I am **nominating someone else** to become a PyTorch Ambassador.
+- [x] The nominee is **18 years of age or older**.
+- [x] The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.
+- [x] The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.
+- [x] The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/foundation-programs/blob/main/pytorch-ambassador-program.md).
+- [x] An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).
+- [ ] A speaker at PyTorch events or workshops.
+- [ ] A PyTorch user group organizer or meetup host.
+- [ ] A researcher or educator using PyTorch in academic work or training.
+- [ ] An active leader in the PyTorch community with **at least one year** of experience in:
+- [ ] Organizing events (virtual/in-person).
+- [ ] Speaking at AI/ML conferences.
+- [ ] Mentoring others in PyTorch.
+- [x] Creating technical content (e.g., blogs, videos, tutorials).
+How Would the Nominee Contribute as an Ambassador?
+```markdown
+Additional Notes:
+```markdown</t>
         </is>
       </c>
     </row>
@@ -1085,10 +1437,26 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>🏆 Ambassador Contribution Plan:
-🔗 Additional Information:
-✅ Contribution Highlights:
-I am **nominating myself** for the PyTorch Ambassador Program.; The nominee is **18 years of age or older**.; The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.; The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.; The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/foundation-programs/blob/main/pytorch-ambassador-program.md).; Mentoring others in PyTorch.; Creating technical content (e.g., blogs, videos, tutorials).</t>
+          <t>Contributions:
+- [x] I am **nominating myself** for the PyTorch Ambassador Program.
+- [ ] I am **nominating someone else** to become a PyTorch Ambassador.
+- [x] The nominee is **18 years of age or older**.
+- [x] The nominee **agrees to abide by the [PyTorch Code of Conduct](https://github.com/pytorch-fdn/Foundation/blob/main/PyTorch%20Foundation%20Code%20of%20Conduct.md)**.
+- [x] The nominee **agrees to comply with the [Linux Foundation Antitrust Policy](https://www.linuxfoundation.org/legal/antitrust-policy)**.
+- [x] The nominee meets **at least one** of the qualifications listed in the [PyTorch Ambassador Program Requirements](https://github.com/pytorch-fdn/foundation-programs/blob/main/pytorch-ambassador-program.md).
+- [ ] An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).
+- [ ] A speaker at PyTorch events or workshops.
+- [ ] A PyTorch user group organizer or meetup host.
+- [ ] A researcher or educator using PyTorch in academic work or training.
+- [ ] An active leader in the PyTorch community with **at least one year** of experience in:
+- [ ] Organizing events (virtual/in-person).
+- [ ] Speaking at AI/ML conferences.
+- [x] Mentoring others in PyTorch.
+- [x] Creating technical content (e.g., blogs, videos, tutorials).
+How Would the Nominee Contribute as an Ambassador?
+```markdown
+Additional Notes:
+```markdown</t>
         </is>
       </c>
     </row>
